--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2918120807763144</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.599854957017557</v>
+        <v>-1.600083976799706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1519362448715124</v>
+        <v>0.1517174562136516</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2452816465608079</v>
+        <v>-0.2452218338341985</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.299021956794239</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532239817623843</v>
+        <v>-1.532590823887893</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1004957259682846</v>
+        <v>0.100361934342974</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2486311592509358</v>
+        <v>-0.2485713465243263</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3234821624804975</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.487458973622839</v>
+        <v>-1.487981547971111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09622383807307452</v>
+        <v>0.09611365673458347</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2585411836386449</v>
+        <v>-0.2584813709120355</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3465565527919759</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.556905484264186</v>
+        <v>-1.557413892440366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12321669198426</v>
+        <v>0.123153731219408</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354849515498324</v>
+        <v>-0.2354802294924685</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3539933408185478</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.591320625341865</v>
+        <v>-1.591730657322963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1081863833949597</v>
+        <v>0.1082099936817793</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2612736808332229</v>
+        <v>-0.2612610886802525</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3460982082353711</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.47809434686066</v>
+        <v>-1.478466602382848</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1212869445415454</v>
+        <v>0.1213908298035512</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530935034598232</v>
+        <v>-0.253087207383338</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3337975619900765</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.263417026944702</v>
+        <v>-1.263645259717291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.157933257723668</v>
+        <v>0.1581410282476797</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2591912535357421</v>
+        <v>-0.2591723653062865</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3234431390732055</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006109760156997</v>
+        <v>-1.006156193721075</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1796578696358601</v>
+        <v>0.1799474891541794</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2565059769148031</v>
+        <v>-0.2564713484941345</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3125499562712086</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5934688423646117</v>
+        <v>-0.5934121776762449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1685720529645393</v>
+        <v>0.1689025969800125</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1648319552520084</v>
+        <v>-0.1648571395579493</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2994611170783594</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2204027003295292</v>
+        <v>-0.2202075219584879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1384327348298738</v>
+        <v>0.1387506866923765</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.129045056510116</v>
+        <v>-0.1290340383762669</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2870225055744801</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2407943463263001</v>
+        <v>0.2410524854621934</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1034611779928151</v>
+        <v>0.103659504402099</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03881441038155409</v>
+        <v>-0.03881283636243278</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2740136823655411</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7653897351498785</v>
+        <v>0.7658084242361445</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00545937118207121</v>
+        <v>-0.005416872665796092</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05500185130533081</v>
+        <v>0.05501601747742252</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2520933029129785</v>
       </c>
       <c r="E14" t="n">
-        <v>1.31022228781602</v>
+        <v>1.3107306959922</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2298279268278778</v>
+        <v>-0.2297098753937802</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1589988686687885</v>
+        <v>0.1590382191468211</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2135731140872585</v>
       </c>
       <c r="E15" t="n">
-        <v>1.871674908383975</v>
+        <v>1.872202204789611</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4414894261074239</v>
+        <v>-0.4413760967306902</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292628370009853</v>
+        <v>0.2926661464687643</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1562928484965897</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343488714012978</v>
+        <v>2.344107303527649</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6659728851490854</v>
+        <v>-0.6659351086901741</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4369470352036705</v>
+        <v>0.4369737935287326</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.0792259111785894</v>
       </c>
       <c r="E17" t="n">
-        <v>2.79860217676498</v>
+        <v>2.799302615273959</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8792013204638862</v>
+        <v>-0.8792886785251185</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5559963974241268</v>
+        <v>0.5560640802463427</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.01268221492738391</v>
       </c>
       <c r="E18" t="n">
-        <v>3.221654444035208</v>
+        <v>3.222332846276489</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207329216585834</v>
+        <v>-1.207416574647066</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6774162324412618</v>
+        <v>0.6774996554546907</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1068811140738465</v>
       </c>
       <c r="E19" t="n">
-        <v>3.595970357252603</v>
+        <v>3.596633019302671</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.506363730279221</v>
+        <v>-1.506539233411246</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8384368145312009</v>
+        <v>0.8385123674490232</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1963339972288793</v>
       </c>
       <c r="E20" t="n">
-        <v>3.720473695728367</v>
+        <v>3.721336258206839</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842238948516211</v>
+        <v>-1.842400285476144</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014692327696209</v>
+        <v>1.014755288461061</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2822290174978401</v>
       </c>
       <c r="E21" t="n">
-        <v>3.970412191999703</v>
+        <v>3.971273180459054</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078862817040464</v>
+        <v>-2.079068226535794</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182548874829957</v>
+        <v>1.182591373346232</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3691188168764709</v>
       </c>
       <c r="E22" t="n">
-        <v>4.175399850204934</v>
+        <v>4.176286022970227</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.37471387706102</v>
+        <v>-2.374809105217859</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322801848633455</v>
+        <v>1.322860087340943</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4578168860988135</v>
       </c>
       <c r="E23" t="n">
-        <v>4.400662448711639</v>
+        <v>4.401482512673837</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.506657603923172</v>
+        <v>-2.506795330596285</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493985872189633</v>
+        <v>1.494001612380846</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5452028146964426</v>
       </c>
       <c r="E24" t="n">
-        <v>4.528427154806738</v>
+        <v>4.529229904558601</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621393366741704</v>
+        <v>-2.621527945376575</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597915206730874</v>
+        <v>1.597930946922087</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6262927522020889</v>
       </c>
       <c r="E25" t="n">
-        <v>4.669611947930045</v>
+        <v>4.670323404572874</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817668829110535</v>
+        <v>-2.81768614332087</v>
       </c>
       <c r="G25" t="n">
-        <v>1.661110500431976</v>
+        <v>1.661124666604067</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6960145323617611</v>
       </c>
       <c r="E26" t="n">
-        <v>4.783122336862644</v>
+        <v>4.783736204319951</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907640549093643</v>
+        <v>-2.907647632179689</v>
       </c>
       <c r="G26" t="n">
-        <v>1.704273252776283</v>
+        <v>1.704255938565949</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.750574633231646</v>
       </c>
       <c r="E27" t="n">
-        <v>4.893604313005861</v>
+        <v>4.894043464340704</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980383842784554</v>
+        <v>-2.980320095010142</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754726861690455</v>
+        <v>1.75467177102121</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7887470862338904</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893146273441562</v>
+        <v>4.89354292626013</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069667716411654</v>
+        <v>-3.069532350767222</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795866999463892</v>
+        <v>1.795769410278371</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8117593002567691</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902151236834523</v>
+        <v>4.902462892620541</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083502557478326</v>
+        <v>-3.083322332288938</v>
       </c>
       <c r="G29" t="n">
-        <v>1.727036717308534</v>
+        <v>1.726980052620167</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8213869064030056</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843825958294727</v>
+        <v>4.844139188099866</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073327310868678</v>
+        <v>-3.073121901373348</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690872053977529</v>
+        <v>1.690799649097949</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8181169188820491</v>
       </c>
       <c r="E31" t="n">
-        <v>4.71855607250689</v>
+        <v>4.718818933700147</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.062040019749831</v>
+        <v>-3.0617606313558</v>
       </c>
       <c r="G31" t="n">
-        <v>1.632126512332345</v>
+        <v>1.632050959414522</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8034294986763579</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638262209091099</v>
+        <v>4.638441647270928</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.023216838122949</v>
+        <v>-3.022924857575948</v>
       </c>
       <c r="G32" t="n">
-        <v>1.594584582270202</v>
+        <v>1.594482271027318</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7797520539144558</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560389187083869</v>
+        <v>4.560406501294204</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.954144944032472</v>
+        <v>-2.953837223294258</v>
       </c>
       <c r="G33" t="n">
-        <v>1.565402267761287</v>
+        <v>1.565225977619702</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7487717168057589</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357842832535775</v>
+        <v>4.357912089377113</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.882043063133491</v>
+        <v>-2.88169048285032</v>
       </c>
       <c r="G34" t="n">
-        <v>1.515066710281213</v>
+        <v>1.514852643680716</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7111798238012459</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133057161822824</v>
+        <v>4.133094938281736</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.850447777311622</v>
+        <v>-2.850043254397448</v>
       </c>
       <c r="G35" t="n">
-        <v>1.39391603253382</v>
+        <v>1.393731872296628</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6676684632973406</v>
       </c>
       <c r="E36" t="n">
-        <v>3.982011138904568</v>
+        <v>3.981973362445657</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.825272128475978</v>
+        <v>-2.824836125179378</v>
       </c>
       <c r="G36" t="n">
-        <v>1.367563804405004</v>
+        <v>1.36732927555593</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.619349830474205</v>
       </c>
       <c r="E37" t="n">
-        <v>3.78612760729694</v>
+        <v>3.786039462226147</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.761486577604389</v>
+        <v>-2.761049787298228</v>
       </c>
       <c r="G37" t="n">
-        <v>1.28042925388804</v>
+        <v>1.28022305738315</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5672881743962972</v>
       </c>
       <c r="E38" t="n">
-        <v>3.716493001370597</v>
+        <v>3.716267916636251</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.730320999002636</v>
+        <v>-2.729829118027229</v>
       </c>
       <c r="G38" t="n">
-        <v>1.23735936867189</v>
+        <v>1.237094933459511</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5121967321505891</v>
       </c>
       <c r="E39" t="n">
-        <v>3.506374040829926</v>
+        <v>3.506090717388092</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.747839831822712</v>
+        <v>-2.747299943264106</v>
       </c>
       <c r="G39" t="n">
-        <v>1.162138568884051</v>
+        <v>1.161877281709915</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4552034273473279</v>
       </c>
       <c r="E40" t="n">
-        <v>3.260553178579912</v>
+        <v>3.26026041102335</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.713159468523094</v>
+        <v>-2.712574720419531</v>
       </c>
       <c r="G40" t="n">
-        <v>1.09801145586314</v>
+        <v>1.097748594669883</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3975120308853637</v>
       </c>
       <c r="E41" t="n">
-        <v>3.088572701348356</v>
+        <v>3.088240583313762</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.65240547847913</v>
+        <v>-2.651840405614583</v>
       </c>
       <c r="G41" t="n">
-        <v>1.066074607891949</v>
+        <v>1.065792858469236</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3412333521580604</v>
       </c>
       <c r="E42" t="n">
-        <v>2.974705010075222</v>
+        <v>2.974243822472681</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.621530306405257</v>
+        <v>-2.620945558301693</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9819306937054567</v>
+        <v>0.9816694065313208</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2874165186362012</v>
       </c>
       <c r="E43" t="n">
-        <v>2.84135725815687</v>
+        <v>2.840817369598264</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.60477408584945</v>
+        <v>-2.60414526521049</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9298275127521614</v>
+        <v>0.929569373616268</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2358139831757374</v>
       </c>
       <c r="E44" t="n">
-        <v>2.712728415564178</v>
+        <v>2.712101955953901</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.53300038793726</v>
+        <v>-2.532406195718969</v>
       </c>
       <c r="G44" t="n">
-        <v>0.865752342362253</v>
+        <v>0.8654705929395402</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.185874625540639</v>
       </c>
       <c r="E45" t="n">
-        <v>2.516120835160752</v>
+        <v>2.515492801531353</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.467590449332489</v>
+        <v>-2.467012784314971</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8357704261397175</v>
+        <v>0.835469788487549</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1375562094113277</v>
       </c>
       <c r="E46" t="n">
-        <v>2.390262266221549</v>
+        <v>2.389577567903783</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.428083356397402</v>
+        <v>-2.427449813701079</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7724523589471547</v>
+        <v>0.7721548693332289</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09047290349643641</v>
       </c>
       <c r="E47" t="n">
-        <v>2.227189163197434</v>
+        <v>2.22650761291791</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.292877474906355</v>
+        <v>-2.292332077280824</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7161056224428327</v>
+        <v>0.7158081328289069</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04402512324646988</v>
       </c>
       <c r="E48" t="n">
-        <v>2.139261307043335</v>
+        <v>2.138507351884232</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.252001772345297</v>
+        <v>-2.251392626945354</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6674023227915468</v>
+        <v>0.6670969630820145</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.002403158808192148</v>
       </c>
       <c r="E49" t="n">
-        <v>1.986021101469985</v>
+        <v>1.98524038798582</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.20011423201162</v>
+        <v>-2.199498790535192</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5929905688320568</v>
+        <v>0.5926726169695541</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.04910975328116585</v>
       </c>
       <c r="E50" t="n">
-        <v>1.892777782743253</v>
+        <v>1.891989199163482</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.152687461867709</v>
+        <v>-2.15207123338172</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5362755118533504</v>
+        <v>0.5359717261629394</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.09579712985108906</v>
       </c>
       <c r="E51" t="n">
-        <v>1.768834795074673</v>
+        <v>1.76805565560963</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.102680087374426</v>
+        <v>-2.102048118697224</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4912381027355738</v>
+        <v>0.4909358910642841</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1424187006995385</v>
       </c>
       <c r="E52" t="n">
-        <v>1.65717073057136</v>
+        <v>1.656407331297529</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.984485417536836</v>
+        <v>-1.983963630198124</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4556526784412079</v>
+        <v>0.4553488927507969</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1881829683400384</v>
       </c>
       <c r="E53" t="n">
-        <v>1.613929277270988</v>
+        <v>1.613088751060213</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.924947357264077</v>
+        <v>-1.924423208896684</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3843952588008044</v>
+        <v>0.3841371196649112</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2315131411578427</v>
       </c>
       <c r="E54" t="n">
-        <v>1.570695694066222</v>
+        <v>1.569756004650805</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.914573784245144</v>
+        <v>-1.914018942504886</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3500533096122661</v>
+        <v>0.3497935964572514</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2721152135522502</v>
       </c>
       <c r="E55" t="n">
-        <v>1.515767148790192</v>
+        <v>1.514770794686408</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.849466844321223</v>
+        <v>-1.848950566049437</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3231391566571456</v>
+        <v>0.3228605552726754</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3107550067635357</v>
       </c>
       <c r="E56" t="n">
-        <v>1.457888891680844</v>
+        <v>1.456837446907815</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.787603170796742</v>
+        <v>-1.787138835155959</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2156572609591281</v>
+        <v>0.2154762487601785</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3478270485096902</v>
       </c>
       <c r="E57" t="n">
-        <v>1.467709196978639</v>
+        <v>1.466583773306909</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.785282279602385</v>
+        <v>-1.784821091999844</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2164962131507814</v>
+        <v>0.2162852945885271</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3834538951450828</v>
       </c>
       <c r="E58" t="n">
-        <v>1.45285045647356</v>
+        <v>1.451646331845765</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.770394419743562</v>
+        <v>-1.769945037284431</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2120244248271661</v>
+        <v>0.2118009141119414</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.416993682185268</v>
       </c>
       <c r="E59" t="n">
-        <v>1.441175956650873</v>
+        <v>1.439908871258226</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.733873241081583</v>
+        <v>-1.733485245368182</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1380581182790042</v>
+        <v>0.1378818281374185</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4478660142489635</v>
       </c>
       <c r="E60" t="n">
-        <v>1.474250820446765</v>
+        <v>1.472837351275837</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.766264193569269</v>
+        <v>-1.765840782425639</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1178492867806247</v>
+        <v>0.1176635525243112</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4769800923911802</v>
       </c>
       <c r="E61" t="n">
-        <v>1.471973214778243</v>
+        <v>1.470490488765977</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.784633783724409</v>
+        <v>-1.784205650523415</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1302226510931694</v>
+        <v>0.1299991403779447</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5054017620114017</v>
       </c>
       <c r="E62" t="n">
-        <v>1.482824502600489</v>
+        <v>1.481241039364461</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.828494613549013</v>
+        <v>-1.828038935013397</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04268987373851683</v>
+        <v>0.04252932378814416</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5342174974946491</v>
       </c>
       <c r="E63" t="n">
-        <v>1.469432747916463</v>
+        <v>1.46778317587734</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.78937866436557</v>
+        <v>-1.78899224267129</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00843292158252866</v>
+        <v>0.008281815746883794</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5632035771591389</v>
       </c>
       <c r="E64" t="n">
-        <v>1.470987878808308</v>
+        <v>1.469284790119061</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.816903536739755</v>
+        <v>-1.816511605978551</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02183546612008357</v>
+        <v>-0.02198657195572843</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.591543316155933</v>
       </c>
       <c r="E65" t="n">
-        <v>1.481286685918979</v>
+        <v>1.479474989910362</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.842374314160643</v>
+        <v>-1.841982383399439</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02494100584640982</v>
+        <v>-0.02510155579678249</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6181012449977638</v>
       </c>
       <c r="E66" t="n">
-        <v>1.444827681012291</v>
+        <v>1.443049039405221</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.847638621111833</v>
+        <v>-1.847282105780858</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03327701111281826</v>
+        <v>-0.03343441302494833</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6417147216452298</v>
       </c>
       <c r="E67" t="n">
-        <v>1.410424345078022</v>
+        <v>1.408590612801706</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.859415432177404</v>
+        <v>-1.859093545267098</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0523462527673761</v>
+        <v>-0.05250365467950616</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6615492964923965</v>
       </c>
       <c r="E68" t="n">
-        <v>1.360356370848568</v>
+        <v>1.358505324361919</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.889306055290904</v>
+        <v>-1.889016435772585</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05960248091657227</v>
+        <v>-0.05977247498167274</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6765373173259395</v>
       </c>
       <c r="E69" t="n">
-        <v>1.256477404919208</v>
+        <v>1.254711355465109</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.91070799328323</v>
+        <v>-1.91043017890832</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0818968877506752</v>
+        <v>-0.08205901172016918</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6855499548368673</v>
       </c>
       <c r="E70" t="n">
-        <v>1.273081732629809</v>
+        <v>1.271224390066674</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.915866840953293</v>
+        <v>-1.915659857438842</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05066520034582696</v>
+        <v>-0.05086195273598955</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6875123986388688</v>
       </c>
       <c r="E71" t="n">
-        <v>1.26589476132195</v>
+        <v>1.264032696701451</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.950233187438212</v>
+        <v>-1.950065554401793</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07035617955329856</v>
+        <v>-0.07057496821115937</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6809985996491482</v>
       </c>
       <c r="E72" t="n">
-        <v>1.249562738919334</v>
+        <v>1.247672341954652</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.979639012662351</v>
+        <v>-1.979493415893631</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1054095853846649</v>
+        <v>-0.1055968936600997</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6651685632701014</v>
       </c>
       <c r="E73" t="n">
-        <v>1.254405995755576</v>
+        <v>1.252485692427589</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.979375364459533</v>
+        <v>-1.979245507882026</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09271826920961744</v>
+        <v>-0.09292131767626523</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6400868553138856</v>
       </c>
       <c r="E74" t="n">
-        <v>1.249021276341607</v>
+        <v>1.247052178420859</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.98734698429936</v>
+        <v>-1.987253330161643</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07357504865635847</v>
+        <v>-0.07381429956279618</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6067810809143099</v>
       </c>
       <c r="E75" t="n">
-        <v>1.193288407294592</v>
+        <v>1.191380696119575</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.020083433984172</v>
+        <v>-2.019990566856015</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04557954456490444</v>
+        <v>-0.04584397977728295</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5665808127798836</v>
       </c>
       <c r="E76" t="n">
-        <v>1.22871957771507</v>
+        <v>1.226794552329719</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023369985909448</v>
+        <v>-2.023323552345369</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02566820268045074</v>
+        <v>-0.02596097023701267</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.521236365369093</v>
       </c>
       <c r="E77" t="n">
-        <v>1.163325379301512</v>
+        <v>1.161466462719256</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.02086808251614</v>
+        <v>-2.020831880076351</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02730046050923956</v>
+        <v>-0.02757119179810327</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.472758455741616</v>
       </c>
       <c r="E78" t="n">
-        <v>1.182969137935344</v>
+        <v>1.181151145850242</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031475397374586</v>
+        <v>-2.031449426059084</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02212980769576679</v>
+        <v>-0.02240683506111572</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4231367035227669</v>
       </c>
       <c r="E79" t="n">
-        <v>1.168832872206943</v>
+        <v>1.167080988924935</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.008382175836423</v>
+        <v>-2.008358565549603</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04379460688134946</v>
+        <v>-0.04404172788339367</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3734778135064064</v>
       </c>
       <c r="E80" t="n">
-        <v>1.147547411629594</v>
+        <v>1.145946634183231</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970242118508186</v>
+        <v>-1.970218508221366</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02750193495676604</v>
+        <v>-0.02775220399705285</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3255660612896355</v>
       </c>
       <c r="E81" t="n">
-        <v>1.172065907482095</v>
+        <v>1.170569015297738</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923470927328297</v>
+        <v>-1.923472501347418</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.007699200391682088</v>
+        <v>-0.007946321393726297</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2797897412664657</v>
       </c>
       <c r="E82" t="n">
-        <v>1.230734322190335</v>
+        <v>1.22926418833104</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951750541871145</v>
+        <v>-1.95167105390552</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02006807092718334</v>
+        <v>0.01980206169568353</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2360695418212367</v>
       </c>
       <c r="E83" t="n">
-        <v>1.317470645869609</v>
+        <v>1.316080786985501</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846963366908795</v>
+        <v>-1.84690906324911</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01250018699196964</v>
+        <v>0.01227825029586624</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1947184116980993</v>
       </c>
       <c r="E84" t="n">
-        <v>1.311464188902726</v>
+        <v>1.310264786332295</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.786117296746235</v>
+        <v>-1.786023642608517</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02297213620598311</v>
+        <v>0.02276751372021402</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1560266618066812</v>
       </c>
       <c r="E85" t="n">
-        <v>1.420284000853849</v>
+        <v>1.419186909526303</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.758256371289652</v>
+        <v>-1.758075359090702</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01670596608408507</v>
+        <v>0.0165343979998633</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1198453107174706</v>
       </c>
       <c r="E86" t="n">
-        <v>1.665322575600576</v>
+        <v>1.664244372502485</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653807610438381</v>
+        <v>-1.653599839914369</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0325390244252487</v>
+        <v>0.03239264064696773</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08686379611127276</v>
       </c>
       <c r="E87" t="n">
-        <v>1.599224790639797</v>
+        <v>1.598453521270359</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.534040495498611</v>
+        <v>-1.533783930381839</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05334126113235858</v>
+        <v>0.05320904352616933</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05824875884111549</v>
       </c>
       <c r="E88" t="n">
-        <v>1.746619089196636</v>
+        <v>1.745891892362595</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334192009724427</v>
+        <v>-1.33396535097096</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09001590665866462</v>
+        <v>0.08988841110983925</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03569533986146253</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913989264421902</v>
+        <v>1.913328176390955</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159168166521836</v>
+        <v>-1.158972988150795</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1137300787401808</v>
+        <v>0.113605731229598</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02155032657332864</v>
       </c>
       <c r="E90" t="n">
-        <v>1.9347537246701</v>
+        <v>1.934257908646891</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.918782392297674</v>
+        <v>-0.9186281384237865</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1425661090424094</v>
+        <v>0.142438613493584</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.01794662241818199</v>
       </c>
       <c r="E91" t="n">
-        <v>1.973087386350257</v>
+        <v>1.97264351295805</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6666135109314547</v>
+        <v>-0.6664797193061441</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09557062013773474</v>
+        <v>0.09551395544936792</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02551367935514198</v>
       </c>
       <c r="E92" t="n">
-        <v>1.988873224117782</v>
+        <v>1.988424628668211</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4612937346916291</v>
+        <v>-0.4611599430663185</v>
       </c>
       <c r="G92" t="n">
-        <v>0.106842171065369</v>
+        <v>0.1067697661857891</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04143109150012863</v>
       </c>
       <c r="E93" t="n">
-        <v>1.962270726948679</v>
+        <v>1.961834723652079</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2406005136940597</v>
+        <v>-0.2405092205850242</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09196454233083486</v>
+        <v>0.09190630362334673</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06015699030586575</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849563087767943</v>
+        <v>1.849174305044982</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05751060950436365</v>
+        <v>-0.05742403845269212</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06668579524274582</v>
+        <v>0.06663542663086419</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07525208120778082</v>
       </c>
       <c r="E95" t="n">
-        <v>1.798281544795967</v>
+        <v>1.797930538531917</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07367916219868477</v>
+        <v>0.07379406559453972</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05427780250953249</v>
+        <v>0.05420382361083136</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08427845957708172</v>
       </c>
       <c r="E96" t="n">
-        <v>1.670178424589789</v>
+        <v>1.669862046746408</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1468175346890425</v>
+        <v>0.1469371601422614</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005284655059606833</v>
+        <v>-0.005325579556760652</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08800815212140563</v>
       </c>
       <c r="E97" t="n">
-        <v>1.504407452791764</v>
+        <v>1.504207552363359</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1508218393336315</v>
+        <v>0.1510107216281876</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02051643809643359</v>
+        <v>-0.02056208465095131</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09154815993758268</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390771142329461</v>
+        <v>1.390609018359967</v>
       </c>
       <c r="F98" t="n">
-        <v>0.178872434094331</v>
+        <v>0.1790392801211889</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05867380963500486</v>
+        <v>-0.05873519638073559</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09822841441624078</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251042316893357</v>
+        <v>1.250958893879928</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1818599223865597</v>
+        <v>0.1820377865472667</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0983422395300248</v>
+        <v>-0.09837844196981471</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1139675894188424</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091830282773792</v>
+        <v>1.091805098467851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2379186133916837</v>
+        <v>0.2379988883668701</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1455423509204685</v>
+        <v>-0.1455439249395898</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1372268844239888</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9099382071354059</v>
+        <v>0.9100531105312608</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2199669253132494</v>
+        <v>0.2200692365561339</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.17128385963022</v>
+        <v>-0.1712917297258265</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1731355720110114</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8500877040670686</v>
+        <v>0.8501538128701631</v>
       </c>
       <c r="F102" t="n">
-        <v>0.258173091444581</v>
+        <v>0.2582266080947052</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2093042915052381</v>
+        <v>-0.2092995694478742</v>
       </c>
     </row>
   </sheetData>
